--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC0ECF4-1A3F-417E-A690-A7D8362795A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3101FDA-092E-47B5-86CC-4859696A85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,7 +1854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2073,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3101FDA-092E-47B5-86CC-4859696A85DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138491E-B0DF-4580-A59B-F363B5E00777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2084,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2095,7 +2095,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2106,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2117,7 +2117,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2128,7 +2128,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2139,7 +2139,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">
@@ -2150,7 +2150,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2161,7 +2161,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2172,7 +2172,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2183,7 +2183,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2194,7 +2194,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">
@@ -2205,7 +2205,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2216,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">
@@ -2227,7 +2227,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2238,7 +2238,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2249,7 +2249,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21">
@@ -2260,7 +2260,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2271,7 +2271,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2282,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8138491E-B0DF-4580-A59B-F363B5E00777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31FCD24-9C9B-47BA-A2C6-F4B038ABD87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2287,16 +2287,12 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
@@ -2306,7 +2302,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2317,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2328,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="21">
@@ -2339,7 +2335,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2350,7 +2346,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -2361,7 +2357,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="21">
@@ -2372,7 +2368,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="21">
@@ -2383,7 +2379,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2394,7 +2390,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
@@ -2405,7 +2401,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
@@ -6821,7 +6817,7 @@
         <v>454</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="21">
@@ -6832,7 +6828,7 @@
         <v>455</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="21">
@@ -6843,7 +6839,7 @@
         <v>456</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="21">
@@ -6854,7 +6850,7 @@
         <v>457</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="476" spans="1:3" ht="21">
@@ -6865,7 +6861,7 @@
         <v>458</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="21">
@@ -6876,7 +6872,7 @@
         <v>459</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="478" spans="1:3" ht="21">
@@ -6887,7 +6883,7 @@
         <v>460</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">
@@ -6898,7 +6894,7 @@
         <v>461</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="21">
@@ -6909,7 +6905,7 @@
         <v>462</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="21">
@@ -6920,7 +6916,7 @@
         <v>463</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31FCD24-9C9B-47BA-A2C6-F4B038ABD87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE6E03-AF22-4C30-A598-0518D7D28192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2417,7 +2417,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2428,7 +2428,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2439,7 +2439,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2450,7 +2450,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2461,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2472,7 +2472,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -2483,7 +2483,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AE6E03-AF22-4C30-A598-0518D7D28192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A249ED-144C-4A7D-8651-8D89EF419694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2494,7 +2494,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
@@ -2505,7 +2505,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="21">
@@ -2516,7 +2516,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="21">
@@ -2527,7 +2527,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="21">
@@ -2538,7 +2538,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="21">
@@ -2549,7 +2549,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="21">
@@ -2560,7 +2560,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="21">
@@ -2571,7 +2571,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="21">
@@ -2582,7 +2582,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="21">
@@ -2593,7 +2593,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="21">
@@ -2604,7 +2604,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="21">
@@ -2615,7 +2615,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="21">
@@ -2626,7 +2626,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="21">
@@ -2637,7 +2637,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="21">
@@ -2648,7 +2648,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="21">
@@ -2659,7 +2659,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="21">
@@ -2670,7 +2670,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="21">
@@ -2681,7 +2681,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="21">
@@ -2692,7 +2692,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="21">
@@ -2703,7 +2703,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A249ED-144C-4A7D-8651-8D89EF419694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB289B-698C-49CA-8938-9CED02F00C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2714,7 +2714,7 @@
         <v>81</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="21">
@@ -2725,7 +2725,7 @@
         <v>82</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="21">
@@ -2736,7 +2736,7 @@
         <v>83</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="21">
@@ -2747,7 +2747,7 @@
         <v>84</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="21">
@@ -2758,7 +2758,7 @@
         <v>85</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="21">
@@ -2769,7 +2769,7 @@
         <v>86</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="21">
@@ -2780,7 +2780,7 @@
         <v>87</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="21">
@@ -2791,7 +2791,7 @@
         <v>88</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="21">
@@ -2802,7 +2802,7 @@
         <v>89</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="21">
@@ -2813,7 +2813,7 @@
         <v>90</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="21">
@@ -2824,7 +2824,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="21">
@@ -2835,7 +2835,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="21">
@@ -2846,7 +2846,7 @@
         <v>93</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="21">
@@ -2857,7 +2857,7 @@
         <v>94</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="21">
@@ -2868,7 +2868,7 @@
         <v>95</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="21">
@@ -2879,7 +2879,7 @@
         <v>96</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB289B-698C-49CA-8938-9CED02F00C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979967C7-49BC-4895-8CD3-82A6F2F2ED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2895,7 +2895,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979967C7-49BC-4895-8CD3-82A6F2F2ED5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CD510-5D3A-4D37-95F6-5E4A160AA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2906,7 +2906,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2917,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2928,7 +2928,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -2939,7 +2939,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -2950,7 +2950,7 @@
         <v>103</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="21">
@@ -2961,7 +2961,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">
@@ -2972,7 +2972,7 @@
         <v>105</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="21">
@@ -2983,7 +2983,7 @@
         <v>106</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="21">
@@ -2994,7 +2994,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="21">
@@ -3005,7 +3005,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="21">
@@ -3016,7 +3016,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="21">
@@ -3027,7 +3027,7 @@
         <v>110</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="21">
@@ -3038,7 +3038,7 @@
         <v>111</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="21">
@@ -3049,7 +3049,7 @@
         <v>112</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="21">
@@ -3060,7 +3060,7 @@
         <v>113</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="21">
@@ -3071,7 +3071,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="21">
@@ -3082,7 +3082,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678CD510-5D3A-4D37-95F6-5E4A160AA4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E29EB-0895-4D67-A548-3FD9A62F85C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3126,7 +3126,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="21">
@@ -3137,7 +3137,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="21">

--- a/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
+++ b/Geeks-for-Geeks/FINAL450 GFG Questions/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\Geeks-for-Geeks\FINAL450 GFG Questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394E29EB-0895-4D67-A548-3FD9A62F85C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F508E8-9FED-4E0D-932F-679105FFC12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1854,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3093,7 +3093,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="21">
@@ -3104,7 +3104,7 @@
         <v>117</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="21">
@@ -3115,7 +3115,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="21">
@@ -3148,7 +3148,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
@@ -3159,7 +3159,7 @@
         <v>122</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="21">
@@ -3170,7 +3170,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="21">
